--- a/DnaRepairSpreadsheetParser/test/exampleData/minAssayAnnotationSpreadsheets/BARD_Broad_Raj.xlsx
+++ b/DnaRepairSpreadsheetParser/test/exampleData/minAssayAnnotationSpreadsheets/BARD_Broad_Raj.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="165">
   <si>
     <t>Instructions:
 Fill out from left to right.  Watch for red errors, correct them before moving on to the next column</t>
@@ -530,6 +530,9 @@
   </si>
   <si>
     <t>UniProtKB:O06934/GO:0016853</t>
+  </si>
+  <si>
+    <t>assay component role</t>
   </si>
 </sst>
 </file>
@@ -910,7 +913,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1069,7 +1072,7 @@
         <v>24</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>1</v>
+        <v>164</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>25</v>
